--- a/alu_output/idt_primer_design/idt_primer_design.xlsx
+++ b/alu_output/idt_primer_design/idt_primer_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikas/Documents/UCSC/rotations/Kim/kim-lab-rotation/alu_output/idt_primer_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8086E-FFD5-1B4E-BE4D-CAB9CBB5694F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07AFBF-2D70-8B42-A724-ECBAA98D20A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="24400" windowHeight="17040" xr2:uid="{1805D4D6-2283-8043-9CE7-A26501E9CC21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>panc</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>amplicon length</t>
+  </si>
+  <si>
+    <t>*primers in blue were ordered</t>
   </si>
 </sst>
 </file>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0C6BFE-0FA4-5B45-BD91-55F570ED2212}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +573,7 @@
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -593,7 +596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,7 +619,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +642,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -662,7 +665,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,7 +688,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -707,8 +710,11 @@
       <c r="G6" s="3">
         <v>276</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -731,7 +737,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -754,7 +760,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -777,7 +783,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -800,7 +806,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -823,7 +829,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -846,7 +852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -869,7 +875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -892,7 +898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -915,7 +921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
